--- a/biology/Botanique/Ipomoea_setifera/Ipomoea_setifera.xlsx
+++ b/biology/Botanique/Ipomoea_setifera/Ipomoea_setifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea setifera est une espèce de plantes de la famille des Convolvulaceae, originaire d'Amérique tropicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ipomoea setifera a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ipomoea setifera a pour synonymes :
 synonymes homotypiques :
 Convolvulus setifer (Poir.) Spreng., Syst. Veg. 1: 597 (1824).
 Ipomoea teretistigma var. setifera (Poir.) Choisy in A.P.de Candolle, Prodr. 9: 373 (1845).
@@ -561,7 +575,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liane rampante ou grimpante, tiges pubescentes.
 Feuilles ovées profondément cordées à la base.
@@ -593,7 +609,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones humides, fréquente en bord de route.
 </t>
